--- a/output/fit_clients/fit_round_438.xlsx
+++ b/output/fit_clients/fit_round_438.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1824963879.50368</v>
+        <v>2290722320.919318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1090535082614684</v>
+        <v>0.08795249123481225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04451700300041073</v>
+        <v>0.03448199217531746</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>912481911.8763827</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2008093304.041821</v>
+        <v>2472309305.195718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.18163215650261</v>
+        <v>0.1249098029342482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03605889516890703</v>
+        <v>0.04101321855471047</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1004046693.348253</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3431290429.500464</v>
+        <v>4922400921.528984</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1649682646513797</v>
+        <v>0.1360614936568378</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0240334832910822</v>
+        <v>0.03449116384462202</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>158</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1715645188.654019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3417623853.036492</v>
+        <v>3763326767.382648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07015540813773684</v>
+        <v>0.08274626763104863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04254259531148907</v>
+        <v>0.03312564838060943</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>162</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1708811968.763983</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1870444793.378101</v>
+        <v>2151004347.765019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1064673467783874</v>
+        <v>0.1437506799352921</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04107592717581458</v>
+        <v>0.04759874264769146</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>935222440.3245847</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2967416549.757622</v>
+        <v>2811653726.808219</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08539352231772426</v>
+        <v>0.06684605440033235</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04351411661090282</v>
+        <v>0.03806051461132678</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>138</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1483708242.912032</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2857634151.334758</v>
+        <v>3568999635.026927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2141377010521958</v>
+        <v>0.2042279565288118</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03264339518403486</v>
+        <v>0.02082096302503721</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>140</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1428817118.647731</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1615304922.844395</v>
+        <v>2014392302.870832</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1697344994158638</v>
+        <v>0.1519573340741071</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03126821902047889</v>
+        <v>0.02256437424602032</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>807652541.4228894</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3834208464.015307</v>
+        <v>3876740905.544342</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1898359632882564</v>
+        <v>0.212433869474377</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03891792212777263</v>
+        <v>0.04991362417196837</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>184</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1917104241.054462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3244916957.601621</v>
+        <v>3886034134.496819</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1917200430877667</v>
+        <v>0.1642345069358409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03780295239519114</v>
+        <v>0.0410333250148214</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1622458438.885355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2284250546.462672</v>
+        <v>2794698692.070591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1971477661434431</v>
+        <v>0.188832572670793</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04602704908762828</v>
+        <v>0.0530103800183238</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>150</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1142125225.725506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3594572713.898447</v>
+        <v>3362358968.828183</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09967475217160585</v>
+        <v>0.09896664688421813</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01944243410313071</v>
+        <v>0.02734689891199905</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>147</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1797286432.48982</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2356853278.200662</v>
+        <v>2414493939.851942</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1735045097601671</v>
+        <v>0.1835402557991712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03569337711365868</v>
+        <v>0.04250894489990709</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>141</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1178426720.132076</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1563160329.531459</v>
+        <v>1756943304.429624</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08968460776000077</v>
+        <v>0.07959264962183207</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0328533476712152</v>
+        <v>0.04100356254139183</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>781580264.601923</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1902512348.824936</v>
+        <v>1971474292.620803</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08776764581834517</v>
+        <v>0.08327573659152959</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03230256955524217</v>
+        <v>0.04255460210336513</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>951256258.6227382</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4550613592.304493</v>
+        <v>4752109430.467247</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1743074024191603</v>
+        <v>0.1672895866646567</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04945490468591072</v>
+        <v>0.05152386253275128</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>128</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2275306803.54589</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3766820370.435575</v>
+        <v>3738066893.714112</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1232717719389842</v>
+        <v>0.1850837557077934</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02880594905145743</v>
+        <v>0.02147457927682242</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>144</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1883410160.028586</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1302387457.785794</v>
+        <v>1219038156.971537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1738335040905139</v>
+        <v>0.1527700653759261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02035498314727191</v>
+        <v>0.02603284713588045</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>651193831.7321334</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2110016184.935512</v>
+        <v>2000456985.030473</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1280198902505306</v>
+        <v>0.1275210604619522</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02628264087401915</v>
+        <v>0.02059442192859156</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1055008107.124404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2432168269.287325</v>
+        <v>2508300541.177633</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06344473596407144</v>
+        <v>0.09690111887076171</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03310363235622231</v>
+        <v>0.04209194669029653</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1216084129.292965</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3146583977.083609</v>
+        <v>3919203672.749798</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1064255705760446</v>
+        <v>0.1419676868866119</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05589592013113964</v>
+        <v>0.03829886814100111</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1573292041.313139</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1216248045.545442</v>
+        <v>1048284907.106195</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1257982306323849</v>
+        <v>0.1521544867220659</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03531704925686868</v>
+        <v>0.04781928872048309</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>608124056.5307612</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3917225006.22332</v>
+        <v>4020843524.061852</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1430360572175854</v>
+        <v>0.1249981231893831</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02459868512316929</v>
+        <v>0.03274795154539188</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1958612476.694752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1052487707.093072</v>
+        <v>1386813263.766569</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09469867690075699</v>
+        <v>0.1021572036088064</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02975418242032885</v>
+        <v>0.02990179011083404</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>526243905.4913608</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1410602916.380958</v>
+        <v>1313171142.057918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.092055521608591</v>
+        <v>0.08436802333725192</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02502258616804492</v>
+        <v>0.03213264992747027</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>705301530.8342903</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3395903960.551816</v>
+        <v>3655606251.653968</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1268535547507121</v>
+        <v>0.1083370941253546</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02719674800740315</v>
+        <v>0.02272015756203368</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1697952020.451831</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2351200960.611217</v>
+        <v>3762565157.7308</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1211229945411786</v>
+        <v>0.09554365438194989</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04497429644242017</v>
+        <v>0.03735287784309615</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1175600435.228971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5761075767.897147</v>
+        <v>4538326608.259859</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1016156321148203</v>
+        <v>0.1344340338611101</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04216149300815639</v>
+        <v>0.03918316253445276</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>193</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2880537778.761652</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1961627473.652434</v>
+        <v>1610120167.863342</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09582093283042116</v>
+        <v>0.0916434678478819</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03111843518319371</v>
+        <v>0.03362117348508624</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>980813769.9641401</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1041837041.352691</v>
+        <v>1389025191.916677</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0687050838740567</v>
+        <v>0.0868926554781289</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04470334566237211</v>
+        <v>0.03563911122672318</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>520918509.3848873</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1464340140.192969</v>
+        <v>1166690426.831512</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1147729628321173</v>
+        <v>0.1082278276889853</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03206310056705538</v>
+        <v>0.03170817070864711</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>732170131.0897696</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2620633484.969713</v>
+        <v>2191112532.211111</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1383012516886163</v>
+        <v>0.1469782216089052</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05970725918933196</v>
+        <v>0.03752147645407852</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>134</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1310316770.428757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1232836293.155938</v>
+        <v>985190582.2240968</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08776497531955528</v>
+        <v>0.109407244902898</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02488995979719777</v>
+        <v>0.02476521992906857</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>616418146.2364869</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1109676747.669811</v>
+        <v>1293478838.049254</v>
       </c>
       <c r="F35" t="n">
-        <v>0.099454673108047</v>
+        <v>0.09577150736521695</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04298246549076652</v>
+        <v>0.03565029764154951</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>554838368.373204</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2279820011.102651</v>
+        <v>2371794918.882701</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1205723463161636</v>
+        <v>0.1726815092366383</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02606886532465152</v>
+        <v>0.02449187690104185</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>110</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1139910045.199201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2096289799.106622</v>
+        <v>2809425738.611954</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09131119836720267</v>
+        <v>0.07762756243188922</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04103340351629669</v>
+        <v>0.04174703116633166</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>118</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1048144940.09214</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1791969214.927713</v>
+        <v>1979240921.362983</v>
       </c>
       <c r="F38" t="n">
-        <v>0.11518730114334</v>
+        <v>0.1054302872439703</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02445255833946115</v>
+        <v>0.03552458049575125</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>895984615.4905031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2035702152.051515</v>
+        <v>2179140513.687975</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1244945429089596</v>
+        <v>0.1600071895057664</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02953890578964458</v>
+        <v>0.02938717112788235</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1017851065.168003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1260882624.60161</v>
+        <v>1611131743.401302</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1097237186949891</v>
+        <v>0.1319789415790262</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0514339004381801</v>
+        <v>0.05678163615181888</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>630441338.3772318</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1816391101.801898</v>
+        <v>2110251210.098194</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1499375740280603</v>
+        <v>0.1609454567994323</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04337710107512015</v>
+        <v>0.04253870385756228</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>908195643.161415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3901504938.331655</v>
+        <v>2988465106.997509</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1059315924139737</v>
+        <v>0.1156930685079326</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03233135979110677</v>
+        <v>0.0372890558857933</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>144</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1950752491.669873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2819230490.371698</v>
+        <v>2974653333.303793</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1384422199363783</v>
+        <v>0.1428985057458428</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01984691642844914</v>
+        <v>0.01860428917635459</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>151</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1409615261.770005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1826446723.719473</v>
+        <v>1578207038.626129</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06816497933570224</v>
+        <v>0.09036108946159413</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02239285545162335</v>
+        <v>0.02686146475706778</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>913223433.5817198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1588530576.917363</v>
+        <v>2003411553.445745</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1920555675238131</v>
+        <v>0.1822453792069967</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04871926294945065</v>
+        <v>0.04671974438445463</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>794265237.8566492</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4976649365.536116</v>
+        <v>5636807375.625209</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1362498701882743</v>
+        <v>0.1712466431370415</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03917246297411015</v>
+        <v>0.03783817999294271</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>156</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2488324708.233202</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5188448476.222152</v>
+        <v>3376702091.200338</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1814156124547411</v>
+        <v>0.1559783660231457</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05760479035816649</v>
+        <v>0.05398762885512765</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>119</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2594224304.613066</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4052008209.172816</v>
+        <v>3672053493.870376</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09044292628810729</v>
+        <v>0.07840713268321339</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0319756706483869</v>
+        <v>0.03053471839695108</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2026004135.982184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1884186879.168507</v>
+        <v>1814762611.673101</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1747824886903965</v>
+        <v>0.1766970056639515</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03391647905670318</v>
+        <v>0.02984858345137629</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>942093411.9064815</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3660924348.833351</v>
+        <v>2820643262.384674</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1589260588302553</v>
+        <v>0.1225395811798695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04182422215615945</v>
+        <v>0.04099462072976794</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>149</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1830462187.247896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1271797247.801467</v>
+        <v>1368404863.151114</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1486784344507074</v>
+        <v>0.1436958216696531</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05191052292473318</v>
+        <v>0.0327307484353426</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>635898663.8388826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5276623196.790493</v>
+        <v>3903308603.482419</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1065881979638389</v>
+        <v>0.1188044105466099</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05839362585609088</v>
+        <v>0.04362753646747659</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>180</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2638311579.759601</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2979775243.635579</v>
+        <v>2813997588.465648</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1982278863930848</v>
+        <v>0.1650199996718919</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0344066647720517</v>
+        <v>0.02668257862315914</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1489887655.635852</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4914695087.101632</v>
+        <v>4274978969.685122</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1202167637334368</v>
+        <v>0.1624822661543275</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05217365192881492</v>
+        <v>0.0344465999650632</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2457347679.455317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4978660196.562634</v>
+        <v>4916142573.644462</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1864279546027443</v>
+        <v>0.1825954764006754</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03056570366921533</v>
+        <v>0.02066215855674429</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2489330116.39819</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1348474839.092693</v>
+        <v>1801526013.643671</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1002222700851811</v>
+        <v>0.1165272523584964</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03595501932532275</v>
+        <v>0.03781050032761862</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>674237484.2706413</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2936610639.617442</v>
+        <v>3879692867.982736</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1743305003514308</v>
+        <v>0.1202517144630374</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02457247258388889</v>
+        <v>0.02700450646400209</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>139</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1468305318.909847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1649658897.122517</v>
+        <v>1502751035.676682</v>
       </c>
       <c r="F58" t="n">
-        <v>0.173994158988138</v>
+        <v>0.1415784461992755</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02613295158999207</v>
+        <v>0.02667252774507691</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>824829466.0547339</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4558806298.45316</v>
+        <v>4632551318.855</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09384771972493638</v>
+        <v>0.1140244511241397</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03318656736412037</v>
+        <v>0.03995703041780098</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2279403098.236304</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2396395761.152723</v>
+        <v>2490437738.586615</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1263950145649913</v>
+        <v>0.177359329199344</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02477308401350029</v>
+        <v>0.02334126196806858</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>136</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1198197887.629164</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3270025707.488829</v>
+        <v>2983710628.537964</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1297775386241121</v>
+        <v>0.1133494299196703</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02930954425518151</v>
+        <v>0.02518969239913484</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>150</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1635012808.760671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1863584458.192289</v>
+        <v>1779750513.609914</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1393776109371579</v>
+        <v>0.1701432947046892</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03367307087140511</v>
+        <v>0.04919564873803067</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>931792266.6877753</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4156979600.82643</v>
+        <v>3848896482.356126</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06989486481294963</v>
+        <v>0.09693229754755706</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02948043872886287</v>
+        <v>0.03148715030339533</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2078489855.812712</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4096057967.903294</v>
+        <v>3644506279.546476</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1470371531353458</v>
+        <v>0.1533735824624338</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02458994510833543</v>
+        <v>0.03506224357764479</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>137</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2048029026.588569</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5969920305.408287</v>
+        <v>4520747275.113466</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1595949459120936</v>
+        <v>0.1404112181332315</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02820746869687813</v>
+        <v>0.02596480943630618</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>157</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2984960053.73959</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5133291762.896108</v>
+        <v>4427230657.129559</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1332041129743321</v>
+        <v>0.1484113099856613</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04250527213415302</v>
+        <v>0.03665918659834839</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>129</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2566645915.767238</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2245017218.743037</v>
+        <v>2744112902.003089</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07770851752803822</v>
+        <v>0.07139753968839452</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03335629818064975</v>
+        <v>0.03800994991527237</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1122508691.608316</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3782208399.334072</v>
+        <v>5876449247.618074</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09764902901265171</v>
+        <v>0.1063441521848902</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03907588636505661</v>
+        <v>0.03117446918443182</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1891104182.277788</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1614643780.208932</v>
+        <v>2414078823.729296</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1366589860523572</v>
+        <v>0.145087292551929</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04055281965822822</v>
+        <v>0.0472572869953808</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>807321845.2388685</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3360915745.430995</v>
+        <v>3230492426.481164</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07766563371210784</v>
+        <v>0.08190982204139104</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0339751898384723</v>
+        <v>0.03485370732309648</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>125</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1680457873.169455</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5201377492.347786</v>
+        <v>5099203434.895609</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1482435597536074</v>
+        <v>0.1149733051762414</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02891385462741981</v>
+        <v>0.02804306919315372</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>159</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2600688866.916652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1565807886.412598</v>
+        <v>1411166681.536901</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06548040258516073</v>
+        <v>0.1074283082028379</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03247804313613877</v>
+        <v>0.04371514677175571</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>782903959.6049966</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3154334181.113727</v>
+        <v>3324890002.539387</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06943912945422022</v>
+        <v>0.08409534982586879</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03354386104512495</v>
+        <v>0.034008413904242</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>166</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1577167072.429608</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3801286244.799525</v>
+        <v>2984648920.07558</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1162457159853741</v>
+        <v>0.1627196963835914</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03227950354591438</v>
+        <v>0.02480543651960574</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>149</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1900643118.50984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2491153817.349973</v>
+        <v>1997530287.04556</v>
       </c>
       <c r="F75" t="n">
-        <v>0.148376214632551</v>
+        <v>0.1150217632748965</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02561875238278738</v>
+        <v>0.03146185478990509</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1245576826.804588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4900021820.344513</v>
+        <v>4535702660.197663</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1040016322366907</v>
+        <v>0.1249166457344505</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03405804752916355</v>
+        <v>0.02488880926675919</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2450010932.646313</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2124877546.330506</v>
+        <v>2279067699.35001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1339239269612826</v>
+        <v>0.1337528608988873</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02785479857911652</v>
+        <v>0.02928900629440418</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1062438853.127728</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2950828824.428199</v>
+        <v>4277400158.533454</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09360668547618947</v>
+        <v>0.09973372983314667</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05216590947593353</v>
+        <v>0.04321928713825171</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>152</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1475414453.056053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1858698551.675677</v>
+        <v>1813072507.097197</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1206442140982605</v>
+        <v>0.1410772136873253</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03064400051465242</v>
+        <v>0.02855420152441088</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>929349372.7766087</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5586428973.576535</v>
+        <v>4183280343.414691</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07993865607449137</v>
+        <v>0.1022926287970785</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02924338152315822</v>
+        <v>0.02797026515300623</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2793214565.184232</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5101012417.186692</v>
+        <v>4963914560.852038</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1051754586669907</v>
+        <v>0.1261986910877489</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0254613357504157</v>
+        <v>0.02678848185244259</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2550506212.70425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5436789764.459031</v>
+        <v>4662184665.772267</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1444660594948766</v>
+        <v>0.1646728557611999</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02842661485821194</v>
+        <v>0.02529801663804798</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>154</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2718394841.821176</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2028964197.853719</v>
+        <v>1727160448.37335</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09616833019466767</v>
+        <v>0.1192711421828079</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02925897323788467</v>
+        <v>0.03023662837741266</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1014482087.862399</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1754118925.250337</v>
+        <v>2046549978.136509</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07698262487766856</v>
+        <v>0.1042360993545409</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03673973726996965</v>
+        <v>0.0478328652993599</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>877059503.6643088</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3644930319.793371</v>
+        <v>2428256481.172977</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1371264934378594</v>
+        <v>0.141130207131881</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04570716827485296</v>
+        <v>0.03793073574412294</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>165</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1822465291.268164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2345894257.664822</v>
+        <v>1872921711.463558</v>
       </c>
       <c r="F86" t="n">
-        <v>0.10793613366041</v>
+        <v>0.1682911226372338</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02743961782042686</v>
+        <v>0.02084563789438341</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1172947204.576177</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1289578773.028918</v>
+        <v>916337384.3089885</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1407594526943582</v>
+        <v>0.1532316945196267</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02831797956183041</v>
+        <v>0.0408532651585768</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>644789465.0935363</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3249699480.919655</v>
+        <v>2907839409.708752</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1315134236482592</v>
+        <v>0.1435334878120539</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03656157406493295</v>
+        <v>0.03024882284891823</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>173</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1624849795.596557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2720635902.231866</v>
+        <v>2325365860.198114</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1509936736427301</v>
+        <v>0.1078997486830773</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03535303527888894</v>
+        <v>0.02628339456871243</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>148</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1360318009.715322</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1699572872.637436</v>
+        <v>2031452631.881675</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1298186800226424</v>
+        <v>0.09401027753049487</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05193501609669048</v>
+        <v>0.04517591802404427</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>849786451.5783725</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1515695677.225215</v>
+        <v>1324855392.514474</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1638286916644941</v>
+        <v>0.1695869655374609</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04812949217209091</v>
+        <v>0.04230877994664102</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>757847875.4809939</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2216461599.925605</v>
+        <v>1948754609.713</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1000276314772031</v>
+        <v>0.09881772699669111</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04131084160220386</v>
+        <v>0.03524649207596849</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>122</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1108230762.520051</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3568107470.098606</v>
+        <v>4171234285.769936</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1300742944898368</v>
+        <v>0.1098842987774965</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03500484802191912</v>
+        <v>0.03354348257045711</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1784053763.613723</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1606422047.930436</v>
+        <v>2094298378.633671</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168992609553748</v>
+        <v>0.1037715619604732</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03280576033798213</v>
+        <v>0.03098974894146775</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>803210971.0800458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2230017158.711088</v>
+        <v>2609930327.241304</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1182977917289372</v>
+        <v>0.1016227362408832</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04673851534880773</v>
+        <v>0.05273722474761654</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>106</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1115008635.081152</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1947480897.819405</v>
+        <v>1847548517.97095</v>
       </c>
       <c r="F96" t="n">
-        <v>0.111225823663801</v>
+        <v>0.1345111120201916</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04710154600538198</v>
+        <v>0.04634319538214934</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>973740441.5019544</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4483571602.997542</v>
+        <v>4691407780.784101</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1406236616176444</v>
+        <v>0.1204435369214055</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02922368672404407</v>
+        <v>0.02725754872077216</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>140</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2241785896.797009</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3529974683.809608</v>
+        <v>3901510366.166126</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1100746529411223</v>
+        <v>0.11798124009828</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03250516561877681</v>
+        <v>0.02294615782160942</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1764987362.540404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3347590827.547787</v>
+        <v>3231003795.826437</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1470144650710778</v>
+        <v>0.1177773454458567</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0315461050969963</v>
+        <v>0.03360975781650612</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1673795424.975569</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3718662358.91542</v>
+        <v>4141241197.881492</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1755718722769465</v>
+        <v>0.117680176085951</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01967560875179188</v>
+        <v>0.01768250293077084</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1859331227.698885</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2284364813.239337</v>
+        <v>3594814101.878949</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1498843085537113</v>
+        <v>0.2145735417925303</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03685050738523338</v>
+        <v>0.05477646037584193</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>179</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1142182401.163228</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_438.xlsx
+++ b/output/fit_clients/fit_round_438.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2290722320.919318</v>
+        <v>2037936660.616627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08795249123481225</v>
+        <v>0.1032782649417796</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03448199217531746</v>
+        <v>0.04100359909843699</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2472309305.195718</v>
+        <v>1657851639.998653</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1249098029342482</v>
+        <v>0.1587375362716082</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04101321855471047</v>
+        <v>0.04905577381701739</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4922400921.528984</v>
+        <v>4529662841.920829</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1360614936568378</v>
+        <v>0.158351118011886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03449116384462202</v>
+        <v>0.0279230456677252</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3763326767.382648</v>
+        <v>3989770388.416183</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08274626763104863</v>
+        <v>0.06752908112125855</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03312564838060943</v>
+        <v>0.04896239325846208</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2151004347.765019</v>
+        <v>2317048005.879787</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1437506799352921</v>
+        <v>0.1068126126213251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04759874264769146</v>
+        <v>0.0438322255947878</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2811653726.808219</v>
+        <v>2273932778.415541</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06684605440033235</v>
+        <v>0.07028450324916513</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03806051461132678</v>
+        <v>0.03613668814166471</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3568999635.026927</v>
+        <v>3075549921.898868</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2042279565288118</v>
+        <v>0.1505225656546874</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02082096302503721</v>
+        <v>0.02716555659880575</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2014392302.870832</v>
+        <v>2222676628.957789</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1519573340741071</v>
+        <v>0.1676697417497284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02256437424602032</v>
+        <v>0.03504390792810692</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3876740905.544342</v>
+        <v>5898695209.867743</v>
       </c>
       <c r="F10" t="n">
-        <v>0.212433869474377</v>
+        <v>0.1321396045628834</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04991362417196837</v>
+        <v>0.04330332715155882</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3886034134.496819</v>
+        <v>3637985549.572812</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1642345069358409</v>
+        <v>0.1751040799279524</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0410333250148214</v>
+        <v>0.03892604801175509</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2794698692.070591</v>
+        <v>3018115492.675719</v>
       </c>
       <c r="F12" t="n">
-        <v>0.188832572670793</v>
+        <v>0.163307343502036</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0530103800183238</v>
+        <v>0.04396554762188729</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3362358968.828183</v>
+        <v>3689684661.690932</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09896664688421813</v>
+        <v>0.08530105628468544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02734689891199905</v>
+        <v>0.03042951756407265</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2414493939.851942</v>
+        <v>3201236972.123086</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1835402557991712</v>
+        <v>0.1478162389855822</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04250894489990709</v>
+        <v>0.04435791230690091</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1756943304.429624</v>
+        <v>1632873961.39416</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07959264962183207</v>
+        <v>0.09680466753802587</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04100356254139183</v>
+        <v>0.03186228344626209</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1971474292.620803</v>
+        <v>2094596838.675513</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08327573659152959</v>
+        <v>0.1052137596405757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04255460210336513</v>
+        <v>0.05002705160997976</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4752109430.467247</v>
+        <v>4839599516.920121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1672895866646567</v>
+        <v>0.149215678432467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05152386253275128</v>
+        <v>0.04823487357726907</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3738066893.714112</v>
+        <v>3277081560.801089</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1850837557077934</v>
+        <v>0.1550752553412175</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02147457927682242</v>
+        <v>0.03220580219000547</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1219038156.971537</v>
+        <v>908016948.3383394</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1527700653759261</v>
+        <v>0.1594071362733003</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02603284713588045</v>
+        <v>0.01918981331596373</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2000456985.030473</v>
+        <v>1756677380.522791</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1275210604619522</v>
+        <v>0.1398265072924666</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02059442192859156</v>
+        <v>0.02552968104656616</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2508300541.177633</v>
+        <v>2613676589.48671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09690111887076171</v>
+        <v>0.07591689143758666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04209194669029653</v>
+        <v>0.03148031002264062</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3919203672.749798</v>
+        <v>3166274445.221394</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1419676868866119</v>
+        <v>0.1352839582488507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03829886814100111</v>
+        <v>0.05598022232256956</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1048284907.106195</v>
+        <v>1070998541.338823</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1521544867220659</v>
+        <v>0.1376922992575479</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04781928872048309</v>
+        <v>0.04968393444879405</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4020843524.061852</v>
+        <v>2716728561.273255</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1249981231893831</v>
+        <v>0.1130723569558248</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03274795154539188</v>
+        <v>0.02815512227031798</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1386813263.766569</v>
+        <v>950777575.1962271</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1021572036088064</v>
+        <v>0.08274331443271145</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02990179011083404</v>
+        <v>0.02980059493542314</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1313171142.057918</v>
+        <v>1310087389.202826</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08436802333725192</v>
+        <v>0.09011922038087092</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03213264992747027</v>
+        <v>0.03790524364404248</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3655606251.653968</v>
+        <v>3241911252.007562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1083370941253546</v>
+        <v>0.1021843542460195</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02272015756203368</v>
+        <v>0.01982066099676707</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3762565157.7308</v>
+        <v>3891688738.877986</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09554365438194989</v>
+        <v>0.1200707504671892</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03735287784309615</v>
+        <v>0.03622678294150763</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4538326608.259859</v>
+        <v>4902922580.090486</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1344340338611101</v>
+        <v>0.1106476619907014</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03918316253445276</v>
+        <v>0.03548045314079301</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1610120167.863342</v>
+        <v>2387532831.923136</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0916434678478819</v>
+        <v>0.1161592125814216</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03362117348508624</v>
+        <v>0.02879571771246548</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1389025191.916677</v>
+        <v>1434100621.10966</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0868926554781289</v>
+        <v>0.1022583935412472</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03563911122672318</v>
+        <v>0.0507445294517272</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1166690426.831512</v>
+        <v>1553820268.935292</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1082278276889853</v>
+        <v>0.08461452537421879</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03170817070864711</v>
+        <v>0.02658574904469344</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2191112532.211111</v>
+        <v>2429926008.475014</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1469782216089052</v>
+        <v>0.1288401456061562</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03752147645407852</v>
+        <v>0.04973128900511992</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>985190582.2240968</v>
+        <v>1223082196.741772</v>
       </c>
       <c r="F34" t="n">
-        <v>0.109407244902898</v>
+        <v>0.09098636749998756</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02476521992906857</v>
+        <v>0.02691546718949629</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1293478838.049254</v>
+        <v>882192176.1768944</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09577150736521695</v>
+        <v>0.09895792886014763</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03565029764154951</v>
+        <v>0.04324433323728951</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2371794918.882701</v>
+        <v>2059166207.371379</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1726815092366383</v>
+        <v>0.1322001616480928</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02449187690104185</v>
+        <v>0.02287230016947488</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2809425738.611954</v>
+        <v>2337662638.980032</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07762756243188922</v>
+        <v>0.07992611789254876</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04174703116633166</v>
+        <v>0.02780351832033376</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1979240921.362983</v>
+        <v>1468902906.931365</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054302872439703</v>
+        <v>0.1215522971536676</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03552458049575125</v>
+        <v>0.02926476829971989</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2179140513.687975</v>
+        <v>1776154234.342677</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1600071895057664</v>
+        <v>0.1566984042528407</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02938717112788235</v>
+        <v>0.02159198257183404</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1611131743.401302</v>
+        <v>1761385799.207762</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1319789415790262</v>
+        <v>0.1128630847386268</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05678163615181888</v>
+        <v>0.0527046432526784</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2110251210.098194</v>
+        <v>2026130647.551667</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1609454567994323</v>
+        <v>0.1348499020153098</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04253870385756228</v>
+        <v>0.03645714982027846</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2988465106.997509</v>
+        <v>3961315822.985936</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1156930685079326</v>
+        <v>0.07696532200746699</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0372890558857933</v>
+        <v>0.02831267344465522</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2974653333.303793</v>
+        <v>2378224197.391173</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1428985057458428</v>
+        <v>0.1506459858324656</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01860428917635459</v>
+        <v>0.02530168614520048</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1578207038.626129</v>
+        <v>1428638778.072932</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09036108946159413</v>
+        <v>0.09865445284729023</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02686146475706778</v>
+        <v>0.03482528874224231</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2003411553.445745</v>
+        <v>1745443367.943444</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1822453792069967</v>
+        <v>0.1926692483456224</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04671974438445463</v>
+        <v>0.04509352735197866</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5636807375.625209</v>
+        <v>3443605221.903314</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1712466431370415</v>
+        <v>0.1528001219280598</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03783817999294271</v>
+        <v>0.06046735847834056</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3376702091.200338</v>
+        <v>4325211715.618274</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1559783660231457</v>
+        <v>0.1731462362019061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05398762885512765</v>
+        <v>0.05601676676358932</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3672053493.870376</v>
+        <v>4352813072.90955</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07840713268321339</v>
+        <v>0.09950956949607993</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03053471839695108</v>
+        <v>0.02753328433698263</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1814762611.673101</v>
+        <v>1382819728.728772</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1766970056639515</v>
+        <v>0.1631350013561824</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02984858345137629</v>
+        <v>0.03791150682325132</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2820643262.384674</v>
+        <v>2863845228.087924</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1225395811798695</v>
+        <v>0.1659795659667622</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04099462072976794</v>
+        <v>0.04765495428122937</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1368404863.151114</v>
+        <v>978354761.0405015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1436958216696531</v>
+        <v>0.172207037768607</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0327307484353426</v>
+        <v>0.03886895488923188</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3903308603.482419</v>
+        <v>4994764972.64504</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1188044105466099</v>
+        <v>0.1353008043265609</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04362753646747659</v>
+        <v>0.05144287841573222</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2813997588.465648</v>
+        <v>2608861032.414333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1650199996718919</v>
+        <v>0.1727713383965662</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02668257862315914</v>
+        <v>0.02924429069049675</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4274978969.685122</v>
+        <v>3391538702.789677</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1624822661543275</v>
+        <v>0.1618980808796977</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0344465999650632</v>
+        <v>0.05067954167754413</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4916142573.644462</v>
+        <v>3628206322.026258</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1825954764006754</v>
+        <v>0.2105083140332263</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02066215855674429</v>
+        <v>0.0280258673022715</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1801526013.643671</v>
+        <v>1177562042.32462</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1165272523584964</v>
+        <v>0.1340996937108384</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03781050032761862</v>
+        <v>0.03627399988699585</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3879692867.982736</v>
+        <v>2828929773.677054</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1202517144630374</v>
+        <v>0.145211428011631</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02700450646400209</v>
+        <v>0.02661620457049429</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1502751035.676682</v>
+        <v>1551248593.734601</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1415784461992755</v>
+        <v>0.1446592674323256</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02667252774507691</v>
+        <v>0.03587120339435137</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4632551318.855</v>
+        <v>4945390494.727859</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1140244511241397</v>
+        <v>0.09006760131507444</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03995703041780098</v>
+        <v>0.03477061586528259</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2490437738.586615</v>
+        <v>3154206912.575055</v>
       </c>
       <c r="F60" t="n">
-        <v>0.177359329199344</v>
+        <v>0.1950682105840259</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02334126196806858</v>
+        <v>0.02258145607020419</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2983710628.537964</v>
+        <v>2769160116.283178</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1133494299196703</v>
+        <v>0.1263051602827431</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02518969239913484</v>
+        <v>0.02727542654460189</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1779750513.609914</v>
+        <v>1852439954.210196</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1701432947046892</v>
+        <v>0.1458865297908065</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04919564873803067</v>
+        <v>0.03917109678678703</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3848896482.356126</v>
+        <v>3980552039.372528</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09693229754755706</v>
+        <v>0.0971082465988265</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03148715030339533</v>
+        <v>0.04347262748751771</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3644506279.546476</v>
+        <v>5343788113.502988</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1533735824624338</v>
+        <v>0.1402520980683494</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03506224357764479</v>
+        <v>0.02931308249839281</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4520747275.113466</v>
+        <v>5747821033.010631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1404112181332315</v>
+        <v>0.1387848897767799</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02596480943630618</v>
+        <v>0.03109104394028224</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4427230657.129559</v>
+        <v>4103310621.456944</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1484113099856613</v>
+        <v>0.1007734632941671</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03665918659834839</v>
+        <v>0.04492111591873015</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2744112902.003089</v>
+        <v>3500416536.00399</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07139753968839452</v>
+        <v>0.08357600959775134</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03800994991527237</v>
+        <v>0.04325687565269619</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5876449247.618074</v>
+        <v>5378891831.389694</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1063441521848902</v>
+        <v>0.1184420499164</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03117446918443182</v>
+        <v>0.04175569739227123</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2414078823.729296</v>
+        <v>2405387603.858608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.145087292551929</v>
+        <v>0.1492992080203399</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0472572869953808</v>
+        <v>0.04653784176311346</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3230492426.481164</v>
+        <v>3575502052.459225</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08190982204139104</v>
+        <v>0.087273366103822</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03485370732309648</v>
+        <v>0.03277253993567758</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5099203434.895609</v>
+        <v>4804784790.904696</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1149733051762414</v>
+        <v>0.1614605017245532</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02804306919315372</v>
+        <v>0.02695516285190419</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1411166681.536901</v>
+        <v>1623619818.606465</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1074283082028379</v>
+        <v>0.07699542632046938</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04371514677175571</v>
+        <v>0.0415848623145859</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3324890002.539387</v>
+        <v>3317349531.787959</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08409534982586879</v>
+        <v>0.1099642902068398</v>
       </c>
       <c r="G73" t="n">
-        <v>0.034008413904242</v>
+        <v>0.03513710779625797</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2984648920.07558</v>
+        <v>3790316065.793329</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1627196963835914</v>
+        <v>0.1570179600115969</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02480543651960574</v>
+        <v>0.02145754329230159</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1997530287.04556</v>
+        <v>1698594510.418967</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1150217632748965</v>
+        <v>0.1009006792203433</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03146185478990509</v>
+        <v>0.02503339530849931</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4535702660.197663</v>
+        <v>4817428561.927292</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1249166457344505</v>
+        <v>0.1169656920833192</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02488880926675919</v>
+        <v>0.02327261195348701</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2279067699.35001</v>
+        <v>1967274421.970681</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1337528608988873</v>
+        <v>0.1254887977114895</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02928900629440418</v>
+        <v>0.02853540879235876</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4277400158.533454</v>
+        <v>4337398741.488071</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09973372983314667</v>
+        <v>0.1244322710015899</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04321928713825171</v>
+        <v>0.04345558013420178</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1813072507.097197</v>
+        <v>1849539850.767946</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1410772136873253</v>
+        <v>0.1553604640270599</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02855420152441088</v>
+        <v>0.02817773708514444</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4183280343.414691</v>
+        <v>5443730316.852459</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1022926287970785</v>
+        <v>0.1041613470312936</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02797026515300623</v>
+        <v>0.02853605381005625</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4963914560.852038</v>
+        <v>4497127730.274338</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1261986910877489</v>
+        <v>0.1179436669723662</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02678848185244259</v>
+        <v>0.02922177234501446</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4662184665.772267</v>
+        <v>4334703640.97761</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1646728557611999</v>
+        <v>0.1689397654126852</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02529801663804798</v>
+        <v>0.02186629693396888</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1727160448.37335</v>
+        <v>2285031988.492684</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1192711421828079</v>
+        <v>0.1310948125093036</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03023662837741266</v>
+        <v>0.03299150830598741</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2046549978.136509</v>
+        <v>2185584762.816416</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1042360993545409</v>
+        <v>0.07832649325438235</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0478328652993599</v>
+        <v>0.03767930011068718</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2428256481.172977</v>
+        <v>3680451800.154082</v>
       </c>
       <c r="F85" t="n">
-        <v>0.141130207131881</v>
+        <v>0.1131783749831171</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03793073574412294</v>
+        <v>0.04769096150539677</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1872921711.463558</v>
+        <v>2112637550.041183</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1682911226372338</v>
+        <v>0.1495389326220766</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02084563789438341</v>
+        <v>0.02106269227018399</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>916337384.3089885</v>
+        <v>1201561516.503286</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1532316945196267</v>
+        <v>0.1409045621747308</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0408532651585768</v>
+        <v>0.03208485659968009</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2907839409.708752</v>
+        <v>3092662183.043088</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1435334878120539</v>
+        <v>0.1775420833592099</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03024882284891823</v>
+        <v>0.03763908348172035</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2325365860.198114</v>
+        <v>2795208346.124148</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1078997486830773</v>
+        <v>0.1527508214530315</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02628339456871243</v>
+        <v>0.03472016706180161</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2031452631.881675</v>
+        <v>1591864656.031935</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09401027753049487</v>
+        <v>0.1200098023841745</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04517591802404427</v>
+        <v>0.04185533689532382</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1324855392.514474</v>
+        <v>2052693940.678668</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1695869655374609</v>
+        <v>0.1359176424757245</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04230877994664102</v>
+        <v>0.03727545216777215</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1948754609.713</v>
+        <v>2191780823.834277</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09881772699669111</v>
+        <v>0.0690153157437645</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03524649207596849</v>
+        <v>0.04304763483793815</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4171234285.769936</v>
+        <v>3816490581.565866</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1098842987774965</v>
+        <v>0.1250158053293391</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03354348257045711</v>
+        <v>0.05057824240563341</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2094298378.633671</v>
+        <v>2012495881.236127</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1037715619604732</v>
+        <v>0.1433792285905024</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03098974894146775</v>
+        <v>0.03804839606072277</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2609930327.241304</v>
+        <v>2962615862.985484</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1016227362408832</v>
+        <v>0.1374418824507119</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05273722474761654</v>
+        <v>0.05152416215244511</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1847548517.97095</v>
+        <v>1832421865.428933</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1345111120201916</v>
+        <v>0.1365803672968453</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04634319538214934</v>
+        <v>0.03355915218824271</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4691407780.784101</v>
+        <v>5166469606.16258</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1204435369214055</v>
+        <v>0.1699499243252811</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02725754872077216</v>
+        <v>0.02808039343499753</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3901510366.166126</v>
+        <v>2515662247.028109</v>
       </c>
       <c r="F98" t="n">
-        <v>0.11798124009828</v>
+        <v>0.1047038946632573</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02294615782160942</v>
+        <v>0.02740322195132426</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3231003795.826437</v>
+        <v>2951923671.685978</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1177773454458567</v>
+        <v>0.1221765285303395</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03360975781650612</v>
+        <v>0.03021973796336607</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4141241197.881492</v>
+        <v>3624628468.586802</v>
       </c>
       <c r="F100" t="n">
-        <v>0.117680176085951</v>
+        <v>0.1119240879840092</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01768250293077084</v>
+        <v>0.02177712923451174</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3594814101.878949</v>
+        <v>3093735493.838375</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2145735417925303</v>
+        <v>0.220505044175211</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05477646037584193</v>
+        <v>0.05571296073687859</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_438.xlsx
+++ b/output/fit_clients/fit_round_438.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2037936660.616627</v>
+        <v>1975445754.84183</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1032782649417796</v>
+        <v>0.09743711080920925</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04100359909843699</v>
+        <v>0.03802020707893883</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1657851639.998653</v>
+        <v>2476133536.043993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1587375362716082</v>
+        <v>0.1241221471037554</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04905577381701739</v>
+        <v>0.04692248434037918</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4529662841.920829</v>
+        <v>5251620931.910423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.158351118011886</v>
+        <v>0.1103377313136198</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0279230456677252</v>
+        <v>0.02454693102032365</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>222</v>
+      </c>
+      <c r="J4" t="n">
+        <v>437</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36.23044592443277</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3989770388.416183</v>
+        <v>3822776310.557691</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06752908112125855</v>
+        <v>0.1033025855895317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04896239325846208</v>
+        <v>0.04343221172358098</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>182</v>
+      </c>
+      <c r="J5" t="n">
+        <v>438</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2317048005.879787</v>
+        <v>2534699646.691372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1068126126213251</v>
+        <v>0.1095036306958377</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0438322255947878</v>
+        <v>0.04926640336699452</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2273932778.415541</v>
+        <v>2329577228.520585</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07028450324916513</v>
+        <v>0.09724601404475892</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03613668814166471</v>
+        <v>0.03940600457243143</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3075549921.898868</v>
+        <v>3293772176.709883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1505225656546874</v>
+        <v>0.1606702955724007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02716555659880575</v>
+        <v>0.03084006039852308</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>118</v>
+      </c>
+      <c r="J8" t="n">
+        <v>433</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2222676628.957789</v>
+        <v>2053575521.164425</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1676697417497284</v>
+        <v>0.1505813978618551</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03504390792810692</v>
+        <v>0.03115559176668262</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5898695209.867743</v>
+        <v>4154732637.689697</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1321396045628834</v>
+        <v>0.131869801007623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04330332715155882</v>
+        <v>0.03327181253415162</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>344</v>
+      </c>
+      <c r="J10" t="n">
+        <v>437</v>
+      </c>
+      <c r="K10" t="n">
+        <v>37.68362245692687</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3637985549.572812</v>
+        <v>4113646202.893275</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1751040799279524</v>
+        <v>0.1480233243207451</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03892604801175509</v>
+        <v>0.04557785310453479</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>180</v>
+      </c>
+      <c r="J11" t="n">
+        <v>438</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3018115492.675719</v>
+        <v>2156860985.148732</v>
       </c>
       <c r="F12" t="n">
-        <v>0.163307343502036</v>
+        <v>0.191144872896699</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04396554762188729</v>
+        <v>0.04618572232585144</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3689684661.690932</v>
+        <v>3285440432.357872</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08530105628468544</v>
+        <v>0.07736753102553982</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03042951756407265</v>
+        <v>0.02351368417112991</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>228</v>
+      </c>
+      <c r="J13" t="n">
+        <v>436</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3201236972.123086</v>
+        <v>2735989933.245242</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1478162389855822</v>
+        <v>0.1366352095770736</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04435791230690091</v>
+        <v>0.04274620598779325</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>436</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1632873961.39416</v>
+        <v>1130303779.070634</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09680466753802587</v>
+        <v>0.06945345713532686</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03186228344626209</v>
+        <v>0.04455322459382297</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2094596838.675513</v>
+        <v>2472095292.495634</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052137596405757</v>
+        <v>0.08973248925458764</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05002705160997976</v>
+        <v>0.04530717847815729</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4839599516.920121</v>
+        <v>3862810367.561778</v>
       </c>
       <c r="F17" t="n">
-        <v>0.149215678432467</v>
+        <v>0.1362690893131177</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04823487357726907</v>
+        <v>0.03980381303043372</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>213</v>
+      </c>
+      <c r="J17" t="n">
+        <v>438</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3277081560.801089</v>
+        <v>3925536303.94061</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1550752553412175</v>
+        <v>0.1394237699776598</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03220580219000547</v>
+        <v>0.03404181783188643</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>112</v>
+      </c>
+      <c r="J18" t="n">
+        <v>438</v>
+      </c>
+      <c r="K18" t="n">
+        <v>56.13816821876833</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>908016948.3383394</v>
+        <v>1228813341.301138</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1594071362733003</v>
+        <v>0.1599137468848239</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01918981331596373</v>
+        <v>0.01684213619216407</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1756677380.522791</v>
+        <v>1727596694.782596</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1398265072924666</v>
+        <v>0.1154091063760876</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02552968104656616</v>
+        <v>0.02430442812294374</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2613676589.48671</v>
+        <v>2068967692.822345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07591689143758666</v>
+        <v>0.06216795747081436</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03148031002264062</v>
+        <v>0.03904757343472767</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3166274445.221394</v>
+        <v>2643115099.045337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1352839582488507</v>
+        <v>0.111084580008143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05598022232256956</v>
+        <v>0.0426057443366872</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>129</v>
+      </c>
+      <c r="J22" t="n">
+        <v>436</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1070998541.338823</v>
+        <v>1224345383.418309</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1376922992575479</v>
+        <v>0.1298478379197592</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04968393444879405</v>
+        <v>0.05026219208240425</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2716728561.273255</v>
+        <v>2958459823.472425</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1130723569558248</v>
+        <v>0.142812733382445</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02815512227031798</v>
+        <v>0.03108224678639249</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>138</v>
+      </c>
+      <c r="J24" t="n">
+        <v>437</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27.41565798819445</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>950777575.1962271</v>
+        <v>1028101485.267843</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08274331443271145</v>
+        <v>0.07530423375051666</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02980059493542314</v>
+        <v>0.02500941030083267</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1310087389.202826</v>
+        <v>951808415.939104</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09011922038087092</v>
+        <v>0.08078799618272946</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03790524364404248</v>
+        <v>0.02937649331775649</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3241911252.007562</v>
+        <v>4040098050.869994</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1021843542460195</v>
+        <v>0.155371661732084</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01982066099676707</v>
+        <v>0.02677421406263704</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>189</v>
+      </c>
+      <c r="J27" t="n">
+        <v>438</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40.1621702120916</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3891688738.877986</v>
+        <v>2877477538.577535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1200707504671892</v>
+        <v>0.102454315865304</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03622678294150763</v>
+        <v>0.03245872404083671</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="n">
+        <v>31.54785166013139</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4902922580.090486</v>
+        <v>4149695092.40885</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1106476619907014</v>
+        <v>0.1340840088125423</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03548045314079301</v>
+        <v>0.0305608594233563</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>360</v>
+      </c>
+      <c r="J29" t="n">
+        <v>437</v>
+      </c>
+      <c r="K29" t="n">
+        <v>34.28108729793242</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2387532831.923136</v>
+        <v>1827588063.986486</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1161592125814216</v>
+        <v>0.09028624944291928</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02879571771246548</v>
+        <v>0.03551117048961123</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1434100621.10966</v>
+        <v>1357356025.246253</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1022583935412472</v>
+        <v>0.1028872342206663</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0507445294517272</v>
+        <v>0.03217806061372828</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1553820268.935292</v>
+        <v>1493700826.709911</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08461452537421879</v>
+        <v>0.1166724218485288</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02658574904469344</v>
+        <v>0.0297939174057164</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2429926008.475014</v>
+        <v>2721999591.345881</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1288401456061562</v>
+        <v>0.1300728631010929</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04973128900511992</v>
+        <v>0.0376957364433679</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1223082196.741772</v>
+        <v>1067023266.457978</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09098636749998756</v>
+        <v>0.1138039472548849</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02691546718949629</v>
+        <v>0.02098890054493907</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>882192176.1768944</v>
+        <v>1297877621.784158</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09895792886014763</v>
+        <v>0.1120070499468612</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04324433323728951</v>
+        <v>0.03507762851667705</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2059166207.371379</v>
+        <v>2304693016.920426</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1322001616480928</v>
+        <v>0.1454630088051778</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02287230016947488</v>
+        <v>0.02895248064525105</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2337662638.980032</v>
+        <v>2221086796.090816</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07992611789254876</v>
+        <v>0.1071650485417314</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02780351832033376</v>
+        <v>0.0376110565423858</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1468902906.931365</v>
+        <v>1652436846.358643</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1215522971536676</v>
+        <v>0.1187044333343199</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02926476829971989</v>
+        <v>0.03066314789051212</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1776154234.342677</v>
+        <v>1708921683.122808</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1566984042528407</v>
+        <v>0.1433198326425193</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02159198257183404</v>
+        <v>0.03242125749478989</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1761385799.207762</v>
+        <v>1180694861.933509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1128630847386268</v>
+        <v>0.09824615804172282</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0527046432526784</v>
+        <v>0.04355181548860352</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2026130647.551667</v>
+        <v>2461287629.501698</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1348499020153098</v>
+        <v>0.1651214990911749</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03645714982027846</v>
+        <v>0.04066940601458274</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3961315822.985936</v>
+        <v>3972110186.012987</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07696532200746699</v>
+        <v>0.114950038873815</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02831267344465522</v>
+        <v>0.0337354732648036</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>189</v>
+      </c>
+      <c r="J42" t="n">
+        <v>438</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2378224197.391173</v>
+        <v>2501848020.163803</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1506459858324656</v>
+        <v>0.1583818041405625</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02530168614520048</v>
+        <v>0.01587340874517728</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1428638778.072932</v>
+        <v>1747752610.107696</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09865445284729023</v>
+        <v>0.08077891258381761</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03482528874224231</v>
+        <v>0.02378370024229712</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1745443367.943444</v>
+        <v>1823080234.983002</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1926692483456224</v>
+        <v>0.1734313951700858</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04509352735197866</v>
+        <v>0.04812975131099697</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3443605221.903314</v>
+        <v>3725073733.962122</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1528001219280598</v>
+        <v>0.1759913694356167</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06046735847834056</v>
+        <v>0.05820284962601423</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>261</v>
+      </c>
+      <c r="J46" t="n">
+        <v>437</v>
+      </c>
+      <c r="K46" t="n">
+        <v>35.17953581100643</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4325211715.618274</v>
+        <v>5024051231.413383</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1731462362019061</v>
+        <v>0.1922023005573534</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05601676676358932</v>
+        <v>0.05973052661029681</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>196</v>
+      </c>
+      <c r="J47" t="n">
+        <v>438</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4352813072.90955</v>
+        <v>3578234402.806143</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09950956949607993</v>
+        <v>0.08661288782713968</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02753328433698263</v>
+        <v>0.03179901718831504</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>435</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1382819728.728772</v>
+        <v>1506991224.422741</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1631350013561824</v>
+        <v>0.164254714466207</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03791150682325132</v>
+        <v>0.03447102465479938</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2863845228.087924</v>
+        <v>2862591452.538881</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1659795659667622</v>
+        <v>0.1725572184137416</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04765495428122937</v>
+        <v>0.04877741654323492</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>154</v>
+      </c>
+      <c r="J50" t="n">
+        <v>437</v>
+      </c>
+      <c r="K50" t="n">
+        <v>25.07731729553663</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>978354761.0405015</v>
+        <v>1290176077.993984</v>
       </c>
       <c r="F51" t="n">
-        <v>0.172207037768607</v>
+        <v>0.156045255038963</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03886895488923188</v>
+        <v>0.03852005017922337</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4994764972.64504</v>
+        <v>4063315838.058655</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1353008043265609</v>
+        <v>0.1272552280600837</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05144287841573222</v>
+        <v>0.05231179319113154</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>250</v>
+      </c>
+      <c r="J52" t="n">
+        <v>438</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2608861032.414333</v>
+        <v>3155688042.776562</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1727713383965662</v>
+        <v>0.1916774131576941</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02924429069049675</v>
+        <v>0.02465755894994001</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>65</v>
+      </c>
+      <c r="J53" t="n">
+        <v>438</v>
+      </c>
+      <c r="K53" t="n">
+        <v>42.46770073373396</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3391538702.789677</v>
+        <v>3374349988.642635</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1618980808796977</v>
+        <v>0.1219822087099263</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05067954167754413</v>
+        <v>0.04859940138503335</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>232</v>
+      </c>
+      <c r="J54" t="n">
+        <v>435</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3628206322.026258</v>
+        <v>4274443057.140008</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2105083140332263</v>
+        <v>0.2207336902166393</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0280258673022715</v>
+        <v>0.02181356269406411</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>217</v>
+      </c>
+      <c r="J55" t="n">
+        <v>438</v>
+      </c>
+      <c r="K55" t="n">
+        <v>39.59433223445161</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1177562042.32462</v>
+        <v>1503309893.580211</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1340996937108384</v>
+        <v>0.1428652770266159</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03627399988699585</v>
+        <v>0.04867316122398263</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2828929773.677054</v>
+        <v>3669615420.102181</v>
       </c>
       <c r="F57" t="n">
-        <v>0.145211428011631</v>
+        <v>0.1805386847883174</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02661620457049429</v>
+        <v>0.02707134142529863</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>189</v>
+      </c>
+      <c r="J57" t="n">
+        <v>438</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1551248593.734601</v>
+        <v>1410140740.665359</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1446592674323256</v>
+        <v>0.135647180368801</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03587120339435137</v>
+        <v>0.03162912204439987</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4945390494.727859</v>
+        <v>4810683223.375591</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09006760131507444</v>
+        <v>0.1029049728431708</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03477061586528259</v>
+        <v>0.03300720835026823</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>214</v>
+      </c>
+      <c r="J59" t="n">
+        <v>438</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3154206912.575055</v>
+        <v>2290402543.093855</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1950682105840259</v>
+        <v>0.1831569382591326</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02258145607020419</v>
+        <v>0.02887214259077829</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="n">
+        <v>22.31061116724783</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2769160116.283178</v>
+        <v>2765397255.390889</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1263051602827431</v>
+        <v>0.122596596172576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02727542654460189</v>
+        <v>0.02593318146935295</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1852439954.210196</v>
+        <v>1825373182.707837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1458865297908065</v>
+        <v>0.1786732078269107</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03917109678678703</v>
+        <v>0.04401420010606305</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3980552039.372528</v>
+        <v>5032436991.202621</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0971082465988265</v>
+        <v>0.08906205094351839</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04347262748751771</v>
+        <v>0.03395472107654971</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>218</v>
+      </c>
+      <c r="J63" t="n">
+        <v>438</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5343788113.502988</v>
+        <v>4732237741.414941</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1402520980683494</v>
+        <v>0.1261912894223126</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02931308249839281</v>
+        <v>0.02799997652212542</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>219</v>
+      </c>
+      <c r="J64" t="n">
+        <v>438</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5747821033.010631</v>
+        <v>5247110287.286746</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1387848897767799</v>
+        <v>0.1272574660265875</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03109104394028224</v>
+        <v>0.02327410004282329</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>316</v>
+      </c>
+      <c r="J65" t="n">
+        <v>438</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4103310621.456944</v>
+        <v>5388745422.48076</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1007734632941671</v>
+        <v>0.1342874984690263</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04492111591873015</v>
+        <v>0.04555489349766238</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>216</v>
+      </c>
+      <c r="J66" t="n">
+        <v>437</v>
+      </c>
+      <c r="K66" t="n">
+        <v>36.99510057794086</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3500416536.00399</v>
+        <v>2409224300.862907</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08357600959775134</v>
+        <v>0.0898719440899773</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04325687565269619</v>
+        <v>0.03794308172506526</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5378891831.389694</v>
+        <v>5084667893.724916</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1184420499164</v>
+        <v>0.1180381955403183</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04175569739227123</v>
+        <v>0.03177848027658999</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>239</v>
+      </c>
+      <c r="J68" t="n">
+        <v>437</v>
+      </c>
+      <c r="K68" t="n">
+        <v>36.13881157705899</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2405387603.858608</v>
+        <v>2230948361.666817</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1492992080203399</v>
+        <v>0.132672257461437</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04653784176311346</v>
+        <v>0.04398598866102987</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3575502052.459225</v>
+        <v>3388660778.157035</v>
       </c>
       <c r="F70" t="n">
-        <v>0.087273366103822</v>
+        <v>0.09403752371233857</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03277253993567758</v>
+        <v>0.04700451007620338</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4804784790.904696</v>
+        <v>5015383868.798088</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1614605017245532</v>
+        <v>0.1370422890360832</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02695516285190419</v>
+        <v>0.02831921709908709</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>302</v>
+      </c>
+      <c r="J71" t="n">
+        <v>438</v>
+      </c>
+      <c r="K71" t="n">
+        <v>39.28495409742762</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1623619818.606465</v>
+        <v>1951301728.449683</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07699542632046938</v>
+        <v>0.08508220319509491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0415848623145859</v>
+        <v>0.05045641299727403</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3317349531.787959</v>
+        <v>2649516287.680236</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1099642902068398</v>
+        <v>0.07791645046244874</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03513710779625797</v>
+        <v>0.03653995310273539</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>437</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38.73443966002542</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3790316065.793329</v>
+        <v>2808165913.941241</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1570179600115969</v>
+        <v>0.1552791991031867</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02145754329230159</v>
+        <v>0.02274639040352364</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1698594510.418967</v>
+        <v>2356216763.765989</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1009006792203433</v>
+        <v>0.1255707863452148</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02503339530849931</v>
+        <v>0.03144017391040646</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4817428561.927292</v>
+        <v>4144784191.092664</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1169656920833192</v>
+        <v>0.1232165529206457</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02327261195348701</v>
+        <v>0.03343664518770598</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>209</v>
+      </c>
+      <c r="J76" t="n">
+        <v>437</v>
+      </c>
+      <c r="K76" t="n">
+        <v>34.33581366881435</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1967274421.970681</v>
+        <v>1541262231.428465</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1254887977114895</v>
+        <v>0.1843831545617542</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02853540879235876</v>
+        <v>0.02071915379904039</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4337398741.488071</v>
+        <v>3302773467.975371</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244322710015899</v>
+        <v>0.1021806060546856</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04345558013420178</v>
+        <v>0.03472318100327629</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>219</v>
+      </c>
+      <c r="J78" t="n">
+        <v>437</v>
+      </c>
+      <c r="K78" t="n">
+        <v>29.78166511427191</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1849539850.767946</v>
+        <v>1426423138.746365</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1553604640270599</v>
+        <v>0.1113926607283931</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02817773708514444</v>
+        <v>0.03716480191272938</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5443730316.852459</v>
+        <v>3983596578.631964</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1041613470312936</v>
+        <v>0.09222801476782252</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02853605381005625</v>
+        <v>0.02454683600908047</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>213</v>
+      </c>
+      <c r="J80" t="n">
+        <v>438</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4497127730.274338</v>
+        <v>3415774478.311833</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1179436669723662</v>
+        <v>0.09873282731872297</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02922177234501446</v>
+        <v>0.02016926568532308</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>203</v>
+      </c>
+      <c r="J81" t="n">
+        <v>437</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.09025088883341</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4334703640.97761</v>
+        <v>5473912544.947896</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1689397654126852</v>
+        <v>0.1561850529942514</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02186629693396888</v>
+        <v>0.02479431199963505</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>294</v>
+      </c>
+      <c r="J82" t="n">
+        <v>438</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2285031988.492684</v>
+        <v>1576094148.178279</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1310948125093036</v>
+        <v>0.1079460976752824</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03299150830598741</v>
+        <v>0.04225780478616033</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2185584762.816416</v>
+        <v>1945146574.714379</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07832649325438235</v>
+        <v>0.08598778190537147</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03767930011068718</v>
+        <v>0.0481209615582216</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3680451800.154082</v>
+        <v>3610631876.576904</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1131783749831171</v>
+        <v>0.1589658140949101</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04769096150539677</v>
+        <v>0.04328335950040172</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2112637550.041183</v>
+        <v>1946784809.732855</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1495389326220766</v>
+        <v>0.1238449917601352</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02106269227018399</v>
+        <v>0.02585660563096498</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1201561516.503286</v>
+        <v>940418313.9198294</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1409045621747308</v>
+        <v>0.1304866847867901</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03208485659968009</v>
+        <v>0.0384529146636225</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3092662183.043088</v>
+        <v>2525022089.526501</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1775420833592099</v>
+        <v>0.1603385952237495</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03763908348172035</v>
+        <v>0.03224616156139053</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2795208346.124148</v>
+        <v>3268586975.870531</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1527508214530315</v>
+        <v>0.1422555302145185</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03472016706180161</v>
+        <v>0.0360162311860582</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1591864656.031935</v>
+        <v>1736077061.221653</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1200098023841745</v>
+        <v>0.1224176485847086</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04185533689532382</v>
+        <v>0.04211605642879936</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2052693940.678668</v>
+        <v>1468637439.114011</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1359176424757245</v>
+        <v>0.188402806117109</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03727545216777215</v>
+        <v>0.05576145796098386</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2191780823.834277</v>
+        <v>2240912620.803223</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0690153157437645</v>
+        <v>0.09125314391496187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04304763483793815</v>
+        <v>0.04120007750517182</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3816490581.565866</v>
+        <v>3722486782.325761</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1250158053293391</v>
+        <v>0.1232656983611569</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05057824240563341</v>
+        <v>0.03562801730591524</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>210</v>
+      </c>
+      <c r="J93" t="n">
+        <v>438</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2012495881.236127</v>
+        <v>2254381055.224985</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1433792285905024</v>
+        <v>0.1497715524495776</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03804839606072277</v>
+        <v>0.03930465048171425</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2962615862.985484</v>
+        <v>2841162613.043416</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1374418824507119</v>
+        <v>0.09679485294923339</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05152416215244511</v>
+        <v>0.05097935860588034</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1832421865.428933</v>
+        <v>1937888432.280891</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1365803672968453</v>
+        <v>0.09058227849996726</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03355915218824271</v>
+        <v>0.04698796847928128</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5166469606.16258</v>
+        <v>3826105489.996139</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1699499243252811</v>
+        <v>0.1637192704299297</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02808039343499753</v>
+        <v>0.02583376421347312</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>229</v>
+      </c>
+      <c r="J97" t="n">
+        <v>437</v>
+      </c>
+      <c r="K97" t="n">
+        <v>36.70250991634435</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2515662247.028109</v>
+        <v>2732301054.463467</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1047038946632573</v>
+        <v>0.1193956000585733</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02740322195132426</v>
+        <v>0.02436807713060718</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2951923671.685978</v>
+        <v>2254622556.292789</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1221765285303395</v>
+        <v>0.1136318811745485</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03021973796336607</v>
+        <v>0.03344863220626628</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3624628468.586802</v>
+        <v>3100095167.151919</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1119240879840092</v>
+        <v>0.1516651950727675</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02177712923451174</v>
+        <v>0.02537117185915896</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>203</v>
+      </c>
+      <c r="J100" t="n">
+        <v>436</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3093735493.838375</v>
+        <v>2493599921.671253</v>
       </c>
       <c r="F101" t="n">
-        <v>0.220505044175211</v>
+        <v>0.1472779489660866</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05571296073687859</v>
+        <v>0.03824929427911035</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="n">
+        <v>434</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
